--- a/data/trans_orig/P44D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1463DE5-E3E5-4DBE-B642-2859CF211086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13DFF242-EA42-4A3A-B644-7096911C6095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC7754E8-B447-493D-94B5-8DA34CBDA914}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A69E93CD-5F78-4AE1-B204-CBFE7C8EF42B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -316,97 +316,103 @@
     <t>15,73%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>61,18%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
   </si>
   <si>
     <t>19,76%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>84,27%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>38,82%</t>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>20,21%</t>
+    <t>19,96%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>71,62%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>79,79%</t>
+    <t>80,04%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>5,51%</t>
@@ -415,31 +421,31 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>12,2%</t>
+    <t>11,7%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>87,8%</t>
+    <t>88,3%</t>
   </si>
   <si>
     <t>98,01%</t>
@@ -448,73 +454,73 @@
     <t>89,22%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
@@ -526,31 +532,31 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>10,67%</t>
+    <t>11,04%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>89,33%</t>
+    <t>88,96%</t>
   </si>
   <si>
     <t>99,22%</t>
@@ -559,181 +565,175 @@
     <t>90,89%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>5,66%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>94,34%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>91,02%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886A2A83-7306-4751-A20B-B3947EB7EB3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AAD3E-6563-4E07-9D1D-022B1395AE26}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD74035-CC65-44CC-8F90-2E5E595B2609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6C4EF4-A804-4E9E-9623-AEA9A74B96A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2863,10 +2863,10 @@
         <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2875,13 +2875,13 @@
         <v>7472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2896,13 @@
         <v>22570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2911,13 +2911,13 @@
         <v>7777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -2926,13 +2926,13 @@
         <v>30347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3000,13 @@
         <v>14263</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3015,13 +3015,13 @@
         <v>2216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3030,13 +3030,13 @@
         <v>16480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3051,13 @@
         <v>36003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3066,10 +3066,10 @@
         <v>31297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3081,13 +3081,13 @@
         <v>67299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3155,13 @@
         <v>4436</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3170,13 +3170,13 @@
         <v>6928</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3185,13 +3185,13 @@
         <v>11364</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3206,13 @@
         <v>76074</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -3221,13 +3221,13 @@
         <v>57326</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -3236,13 +3236,13 @@
         <v>133400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3310,13 @@
         <v>22912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3325,13 +3325,13 @@
         <v>12404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -3340,13 +3340,13 @@
         <v>35316</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3361,13 @@
         <v>134646</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>82</v>
@@ -3376,13 +3376,13 @@
         <v>96400</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -3391,13 +3391,13 @@
         <v>231046</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,7 +3475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3B5160-0810-42A2-AC33-E14A6BB673FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26F46C7-6369-4DFB-AA0C-EB83F6630230}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3492,7 +3492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4010,13 +4010,13 @@
         <v>7148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4025,13 +4025,13 @@
         <v>7013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4040,13 +4040,13 @@
         <v>14161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4061,13 @@
         <v>135404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -4076,13 +4076,13 @@
         <v>69943</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
@@ -4091,13 +4091,13 @@
         <v>205347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4165,13 @@
         <v>26258</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4180,13 +4180,13 @@
         <v>13758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4195,13 +4195,13 @@
         <v>40016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4216,13 @@
         <v>167457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>259</v>
@@ -4231,13 +4231,13 @@
         <v>154763</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>447</v>
@@ -4246,13 +4246,13 @@
         <v>322221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4320,13 @@
         <v>22162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -4335,13 +4335,13 @@
         <v>17926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -4350,13 +4350,13 @@
         <v>40088</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,10 +4371,10 @@
         <v>260600</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>207</v>

--- a/data/trans_orig/P44D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13DFF242-EA42-4A3A-B644-7096911C6095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FBBA8D-7DC1-4180-B5CD-E9EEFDE88D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A69E93CD-5F78-4AE1-B204-CBFE7C8EF42B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8561CDC0-F53A-46E1-A331-75C268D57947}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="230">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -91,10 +91,10 @@
     <t>43,83%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>10,93%</t>
@@ -103,31 +103,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,66%</t>
+    <t>32,85%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>56,17%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
-    <t>67,34%</t>
+    <t>67,15%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -136,10 +136,10 @@
     <t>75,63%</t>
   </si>
   <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -151,49 +151,49 @@
     <t>8,86%</t>
   </si>
   <si>
-    <t>29,16%</t>
+    <t>30,48%</t>
   </si>
   <si>
     <t>31,97%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>91,14%</t>
   </si>
   <si>
-    <t>70,84%</t>
+    <t>69,52%</t>
   </si>
   <si>
     <t>68,03%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -202,55 +202,55 @@
     <t>8,37%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>89,96%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>13,0%</t>
@@ -259,31 +259,31 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>22,27%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>77,73%</t>
+    <t>77,71%</t>
   </si>
   <si>
     <t>93,42%</t>
@@ -292,235 +292,229 @@
     <t>82,08%</t>
   </si>
   <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,71%)</t>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
   </si>
   <si>
     <t>19,76%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>84,27%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>19,96%</t>
+    <t>20,32%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>97,97%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>82,06%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
@@ -1145,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AAD3E-6563-4E07-9D1D-022B1395AE26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C360CD-11B2-449B-B1C0-DDCA82B648FF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2310,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6C4EF4-A804-4E9E-9623-AEA9A74B96A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765F6DD-53CF-48B4-AE18-87C9F96A6545}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,10 +3337,10 @@
         <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3355,13 @@
         <v>134646</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H23" s="7">
         <v>82</v>
@@ -3376,13 +3370,13 @@
         <v>96400</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -3391,13 +3385,13 @@
         <v>231046</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,7 +3469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26F46C7-6369-4DFB-AA0C-EB83F6630230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9977A20-B99E-4240-96FC-40D15746B879}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3492,7 +3486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4010,13 +4004,13 @@
         <v>7148</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4025,13 +4019,13 @@
         <v>7013</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4040,13 +4034,13 @@
         <v>14161</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4055,13 @@
         <v>135404</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -4076,13 +4070,13 @@
         <v>69943</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
@@ -4091,13 +4085,13 @@
         <v>205347</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4159,13 @@
         <v>26258</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4180,13 +4174,13 @@
         <v>13758</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4195,13 +4189,13 @@
         <v>40016</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4210,13 @@
         <v>167457</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>259</v>
@@ -4231,13 +4225,13 @@
         <v>154763</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>447</v>
@@ -4246,13 +4240,13 @@
         <v>322221</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4314,13 @@
         <v>22162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -4335,13 +4329,13 @@
         <v>17926</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -4350,13 +4344,13 @@
         <v>40088</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4365,13 @@
         <v>260600</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>467</v>
@@ -4386,13 +4380,13 @@
         <v>264877</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>840</v>
@@ -4401,13 +4395,13 @@
         <v>525477</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4469,13 @@
         <v>55568</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -4490,13 +4484,13 @@
         <v>38697</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -4505,13 +4499,13 @@
         <v>94265</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4520,13 @@
         <v>563462</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>835</v>
@@ -4541,13 +4535,13 @@
         <v>489584</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>1482</v>
@@ -4556,13 +4550,13 @@
         <v>1053045</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9FBBA8D-7DC1-4180-B5CD-E9EEFDE88D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFAB16D-4625-48AB-96B9-C7D6E9203586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8561CDC0-F53A-46E1-A331-75C268D57947}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E152DB10-ACB8-4CDE-8D0F-99E8E7F657C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -91,10 +91,10 @@
     <t>43,83%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>10,93%</t>
@@ -103,31 +103,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,85%</t>
+    <t>32,66%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
   </si>
   <si>
     <t>56,17%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
-    <t>67,15%</t>
+    <t>67,34%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -136,10 +136,10 @@
     <t>75,63%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -151,49 +151,49 @@
     <t>8,86%</t>
   </si>
   <si>
-    <t>30,48%</t>
+    <t>29,16%</t>
   </si>
   <si>
     <t>31,97%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>91,14%</t>
   </si>
   <si>
-    <t>69,52%</t>
+    <t>70,84%</t>
   </si>
   <si>
     <t>68,03%</t>
   </si>
   <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -202,532 +202,538 @@
     <t>8,37%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,71%)</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>91,02%</t>
   </si>
   <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C360CD-11B2-449B-B1C0-DDCA82B648FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B36E89-CFB6-426C-9B3D-710BE4753550}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2304,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765F6DD-53CF-48B4-AE18-87C9F96A6545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866C54FA-B915-4933-9364-188F54D4608E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2857,10 +2863,10 @@
         <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2869,13 +2875,13 @@
         <v>7472</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2896,13 @@
         <v>22570</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2905,13 +2911,13 @@
         <v>7777</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -2920,13 +2926,13 @@
         <v>30347</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +3000,13 @@
         <v>14263</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3009,13 +3015,13 @@
         <v>2216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3024,13 +3030,13 @@
         <v>16480</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3051,13 @@
         <v>36003</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3060,10 +3066,10 @@
         <v>31297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3075,13 +3081,13 @@
         <v>67299</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3155,13 @@
         <v>4436</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -3164,13 +3170,13 @@
         <v>6928</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3179,13 +3185,13 @@
         <v>11364</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3206,13 @@
         <v>76074</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -3215,13 +3221,13 @@
         <v>57326</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>126</v>
@@ -3230,13 +3236,13 @@
         <v>133400</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3310,13 @@
         <v>22912</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -3319,13 +3325,13 @@
         <v>12404</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -3334,13 +3340,13 @@
         <v>35316</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3361,13 @@
         <v>134646</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>82</v>
@@ -3370,13 +3376,13 @@
         <v>96400</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -3385,13 +3391,13 @@
         <v>231046</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,7 +3475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9977A20-B99E-4240-96FC-40D15746B879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7579C452-3A04-4A08-BC15-35F97539DADC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4320,7 +4326,7 @@
         <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -4329,13 +4335,13 @@
         <v>17926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -4344,13 +4350,13 @@
         <v>40088</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4371,13 @@
         <v>260600</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>467</v>
@@ -4380,13 +4386,13 @@
         <v>264877</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>840</v>
@@ -4395,13 +4401,13 @@
         <v>525477</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4475,13 @@
         <v>55568</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -4484,13 +4490,13 @@
         <v>38697</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -4499,13 +4505,13 @@
         <v>94265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4526,13 @@
         <v>563462</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>835</v>
@@ -4535,13 +4541,13 @@
         <v>489584</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>1482</v>
@@ -4550,13 +4556,13 @@
         <v>1053045</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P44D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFAB16D-4625-48AB-96B9-C7D6E9203586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC52685B-2036-4CF0-8526-6C3A5706FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E152DB10-ACB8-4CDE-8D0F-99E8E7F657C5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9EB8187D-A435-46B6-B4F3-2CD29F9619FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="275">
   <si>
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -79,13 +79,13 @@
     <t>Servicio sanitario público</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
   </si>
   <si>
     <t>43,83%</t>
@@ -145,7 +145,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>8,86%</t>
@@ -196,61 +196,100 @@
     <t>89,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>13,0%</t>
@@ -409,58 +448,100 @@
     <t>88,41%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>14,54%</t>
@@ -520,220 +601,268 @@
     <t>Población según el lugar donde le realizaron dicha prueba de Cáncer de colon en 2023 (Tasa respuesta: 18,45%)</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>96,5%</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1274,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B36E89-CFB6-426C-9B3D-710BE4753550}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0CE834-C806-4034-AA66-32EC93F88E0B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1984,49 +2113,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>4954</v>
+        <v>3016</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2937</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6478</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5953</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="7">
-        <v>9</v>
-      </c>
-      <c r="N19" s="7">
-        <v>11433</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,49 +2164,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7">
-        <v>54239</v>
+        <v>29719</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="7">
+        <v>30</v>
+      </c>
+      <c r="I20" s="7">
+        <v>30449</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="7">
+        <v>55</v>
+      </c>
+      <c r="N20" s="7">
+        <v>60168</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7">
-        <v>48202</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="7">
-        <v>93</v>
-      </c>
-      <c r="N20" s="7">
-        <v>102441</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>59193</v>
+        <v>32735</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>34</v>
@@ -2101,10 +2230,10 @@
         <v>34</v>
       </c>
       <c r="H21" s="7">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I21" s="7">
-        <v>54680</v>
+        <v>33386</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>34</v>
@@ -2116,10 +2245,10 @@
         <v>34</v>
       </c>
       <c r="M21" s="7">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="N21" s="7">
-        <v>113874</v>
+        <v>66121</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
@@ -2133,55 +2262,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>14651</v>
+        <v>1938</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3541</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5479</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="7">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7">
-        <v>19534</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" s="7">
-        <v>26</v>
-      </c>
-      <c r="N22" s="7">
-        <v>34185</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,49 +2319,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7">
-        <v>98055</v>
+        <v>24520</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="7">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7">
+        <v>17754</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>38</v>
+      </c>
+      <c r="N23" s="7">
+        <v>42274</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="7">
-        <v>84</v>
-      </c>
-      <c r="I23" s="7">
-        <v>89479</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="7">
-        <v>170</v>
-      </c>
-      <c r="N23" s="7">
-        <v>187534</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,63 +2370,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>26458</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="7">
+        <v>19</v>
+      </c>
+      <c r="I24" s="7">
+        <v>21295</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="7">
+        <v>43</v>
+      </c>
+      <c r="N24" s="7">
+        <v>47753</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7">
+        <v>14651</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="7">
+        <v>15</v>
+      </c>
+      <c r="I25" s="7">
+        <v>19534</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="7">
+        <v>26</v>
+      </c>
+      <c r="N25" s="7">
+        <v>34185</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>86</v>
+      </c>
+      <c r="D26" s="7">
+        <v>98055</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="7">
+        <v>84</v>
+      </c>
+      <c r="I26" s="7">
+        <v>89479</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="7">
+      <c r="L26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="7">
+        <v>170</v>
+      </c>
+      <c r="N26" s="7">
+        <v>187534</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>97</v>
+      </c>
+      <c r="D27" s="7">
         <v>112706</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="7">
         <v>99</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>109013</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="7">
         <v>196</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>221719</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>89</v>
+      <c r="O27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2310,8 +2595,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866C54FA-B915-4933-9364-188F54D4608E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DD9F46-4BC1-48D5-985B-40EDDDFCDA16}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2327,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2845,13 +3130,13 @@
         <v>4212</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2860,13 +3145,13 @@
         <v>3260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2875,13 +3160,13 @@
         <v>7472</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +3181,13 @@
         <v>22570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2911,10 +3196,10 @@
         <v>7777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -2926,13 +3211,13 @@
         <v>30347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3285,13 @@
         <v>14263</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3015,13 +3300,13 @@
         <v>2216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3030,13 +3315,13 @@
         <v>16480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3336,13 @@
         <v>36003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3066,10 +3351,10 @@
         <v>31297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3081,13 +3366,13 @@
         <v>67299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,49 +3434,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>4436</v>
+        <v>1961</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4269</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" s="7">
         <v>6</v>
       </c>
-      <c r="I19" s="7">
-        <v>6928</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M19" s="7">
-        <v>11</v>
-      </c>
       <c r="N19" s="7">
-        <v>11364</v>
+        <v>6230</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,49 +3485,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>76074</v>
+        <v>40181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I20" s="7">
-        <v>57326</v>
+        <v>24145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>133400</v>
+        <v>64326</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,10 +3536,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>80510</v>
+        <v>42142</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>34</v>
@@ -3266,10 +3551,10 @@
         <v>34</v>
       </c>
       <c r="H21" s="7">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I21" s="7">
-        <v>64254</v>
+        <v>28414</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>34</v>
@@ -3281,10 +3566,10 @@
         <v>34</v>
       </c>
       <c r="M21" s="7">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="N21" s="7">
-        <v>144764</v>
+        <v>70556</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
@@ -3298,55 +3583,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>22912</v>
+        <v>2475</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>12404</v>
+        <v>2659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>35316</v>
+        <v>5135</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,49 +3640,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="D23" s="7">
-        <v>134646</v>
+        <v>35893</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>96400</v>
+        <v>33181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="N23" s="7">
-        <v>231046</v>
+        <v>69073</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,63 +3691,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>44</v>
+      </c>
+      <c r="D24" s="7">
+        <v>38368</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="7">
+        <v>27</v>
+      </c>
+      <c r="I24" s="7">
+        <v>35840</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="7">
+        <v>71</v>
+      </c>
+      <c r="N24" s="7">
+        <v>74208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7">
+        <v>22912</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="7">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7">
+        <v>12404</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M25" s="7">
+        <v>33</v>
+      </c>
+      <c r="N25" s="7">
+        <v>35316</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>129</v>
+      </c>
+      <c r="D26" s="7">
+        <v>134646</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="7">
+        <v>82</v>
+      </c>
+      <c r="I26" s="7">
+        <v>96400</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M26" s="7">
+        <v>211</v>
+      </c>
+      <c r="N26" s="7">
+        <v>231046</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>151</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>157558</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="7">
         <v>93</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>108804</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="7">
         <v>244</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>266362</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>89</v>
+      <c r="O27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3475,8 +3916,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7579C452-3A04-4A08-BC15-35F97539DADC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C50981-17A1-4D63-BAC7-6579AA9F244B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3492,7 +3933,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4007,46 +4448,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>7148</v>
+        <v>6437</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>7013</v>
+        <v>6576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>14161</v>
+        <v>13013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,46 +4499,46 @@
         <v>86</v>
       </c>
       <c r="D14" s="7">
-        <v>135404</v>
+        <v>326735</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
       </c>
       <c r="I14" s="7">
-        <v>69943</v>
+        <v>65461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
       </c>
       <c r="N14" s="7">
-        <v>205347</v>
+        <v>392196</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4550,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>142552</v>
+        <v>333172</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>34</v>
@@ -4124,7 +4565,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="7">
-        <v>76956</v>
+        <v>72037</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>34</v>
@@ -4139,7 +4580,7 @@
         <v>212</v>
       </c>
       <c r="N15" s="7">
-        <v>219508</v>
+        <v>405209</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -4162,46 +4603,46 @@
         <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>26258</v>
+        <v>24248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>13758</v>
+        <v>12488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>40016</v>
+        <v>36736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,46 +4654,46 @@
         <v>188</v>
       </c>
       <c r="D17" s="7">
-        <v>167457</v>
+        <v>159000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>259</v>
       </c>
       <c r="I17" s="7">
-        <v>154763</v>
+        <v>143461</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>447</v>
       </c>
       <c r="N17" s="7">
-        <v>322221</v>
+        <v>302461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4705,7 @@
         <v>217</v>
       </c>
       <c r="D18" s="7">
-        <v>193715</v>
+        <v>183248</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>34</v>
@@ -4279,7 +4720,7 @@
         <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>168521</v>
+        <v>155949</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>34</v>
@@ -4294,7 +4735,7 @@
         <v>498</v>
       </c>
       <c r="N18" s="7">
-        <v>362237</v>
+        <v>339197</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>34</v>
@@ -4314,49 +4755,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>22162</v>
+        <v>16193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>17926</v>
+        <v>11807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N19" s="7">
-        <v>40088</v>
+        <v>27999</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,49 +4806,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>373</v>
+        <v>226</v>
       </c>
       <c r="D20" s="7">
-        <v>260600</v>
+        <v>147756</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
-        <v>467</v>
+        <v>266</v>
       </c>
       <c r="I20" s="7">
-        <v>264877</v>
+        <v>131252</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
-        <v>840</v>
+        <v>492</v>
       </c>
       <c r="N20" s="7">
-        <v>525477</v>
+        <v>279009</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,10 +4857,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>404</v>
+        <v>249</v>
       </c>
       <c r="D21" s="7">
-        <v>282762</v>
+        <v>163949</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>34</v>
@@ -4431,10 +4872,10 @@
         <v>34</v>
       </c>
       <c r="H21" s="7">
-        <v>499</v>
+        <v>289</v>
       </c>
       <c r="I21" s="7">
-        <v>282803</v>
+        <v>143059</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>34</v>
@@ -4446,10 +4887,10 @@
         <v>34</v>
       </c>
       <c r="M21" s="7">
-        <v>903</v>
+        <v>538</v>
       </c>
       <c r="N21" s="7">
-        <v>565565</v>
+        <v>307008</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>34</v>
@@ -4463,55 +4904,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>55568</v>
+        <v>5056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>38697</v>
+        <v>4410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="N22" s="7">
-        <v>94265</v>
+        <v>9466</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,49 +4961,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>647</v>
+        <v>147</v>
       </c>
       <c r="D23" s="7">
-        <v>563462</v>
+        <v>93738</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H23" s="7">
-        <v>835</v>
+        <v>201</v>
       </c>
       <c r="I23" s="7">
-        <v>489584</v>
+        <v>103969</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="M23" s="7">
-        <v>1482</v>
+        <v>348</v>
       </c>
       <c r="N23" s="7">
-        <v>1053045</v>
+        <v>197707</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,63 +5012,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>155</v>
+      </c>
+      <c r="D24" s="7">
+        <v>98794</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="7">
+        <v>210</v>
+      </c>
+      <c r="I24" s="7">
+        <v>108379</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="7">
+        <v>365</v>
+      </c>
+      <c r="N24" s="7">
+        <v>207173</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7">
+        <v>51933</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" s="7">
+        <v>65</v>
+      </c>
+      <c r="I25" s="7">
+        <v>35281</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M25" s="7">
+        <v>131</v>
+      </c>
+      <c r="N25" s="7">
+        <v>87214</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>647</v>
+      </c>
+      <c r="D26" s="7">
+        <v>727230</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" s="7">
+        <v>835</v>
+      </c>
+      <c r="I26" s="7">
+        <v>444142</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1482</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1171373</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>713</v>
       </c>
-      <c r="D24" s="7">
-        <v>619030</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>779163</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="7">
         <v>900</v>
       </c>
-      <c r="I24" s="7">
-        <v>528281</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>479423</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="7">
         <v>1613</v>
       </c>
-      <c r="N24" s="7">
-        <v>1147310</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>89</v>
+      <c r="N27" s="7">
+        <v>1258587</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
